--- a/table/DGP1_table.xlsx
+++ b/table/DGP1_table.xlsx
@@ -380,7 +380,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/table/DGP1_table.xlsx
+++ b/table/DGP1_table.xlsx
@@ -425,37 +425,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.917</v>
+        <v>0.924</v>
       </c>
       <c r="F2" t="n">
-        <v>0.938</v>
+        <v>0.947</v>
       </c>
       <c r="G2" t="n">
-        <v>4.05387427446472</v>
+        <v>4.17967832607645</v>
       </c>
       <c r="H2" t="n">
-        <v>3.23601607730262</v>
+        <v>2.9842839616403</v>
       </c>
       <c r="I2" t="n">
-        <v>45.5571264864953</v>
+        <v>43.4266509277908</v>
       </c>
       <c r="J2" t="n">
-        <v>31.893755169037</v>
+        <v>26.9258099483442</v>
       </c>
       <c r="K2" t="n">
-        <v>26.8294024276969</v>
+        <v>26.1940157530881</v>
       </c>
       <c r="L2" t="n">
-        <v>26.1457371438265</v>
+        <v>25.1852846244473</v>
       </c>
     </row>
     <row r="3">
@@ -463,37 +463,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.926</v>
+        <v>0.921</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9485</v>
+        <v>0.949</v>
       </c>
       <c r="G3" t="n">
-        <v>4.34148269920271</v>
+        <v>4.3009281542692</v>
       </c>
       <c r="H3" t="n">
-        <v>3.29056236460741</v>
+        <v>3.07777009923202</v>
       </c>
       <c r="I3" t="n">
-        <v>46.9670552811354</v>
+        <v>46.3249504593867</v>
       </c>
       <c r="J3" t="n">
-        <v>33.2753079586415</v>
+        <v>28.0112504037012</v>
       </c>
       <c r="K3" t="n">
-        <v>27.1527024565181</v>
+        <v>26.6369499737683</v>
       </c>
       <c r="L3" t="n">
-        <v>26.6924358651114</v>
+        <v>25.8299119662799</v>
       </c>
     </row>
     <row r="4">
@@ -501,37 +501,37 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.919</v>
+        <v>0.909</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9365</v>
+        <v>0.934</v>
       </c>
       <c r="G4" t="n">
-        <v>4.36058023957176</v>
+        <v>4.37668453928741</v>
       </c>
       <c r="H4" t="n">
-        <v>3.28030984838484</v>
+        <v>3.18153648817486</v>
       </c>
       <c r="I4" t="n">
-        <v>51.9543313086606</v>
+        <v>52.4252167792156</v>
       </c>
       <c r="J4" t="n">
-        <v>35.8106065874162</v>
+        <v>33.3118456868775</v>
       </c>
       <c r="K4" t="n">
-        <v>27.1240990369769</v>
+        <v>26.7629601895205</v>
       </c>
       <c r="L4" t="n">
-        <v>26.7622281298361</v>
+        <v>25.6788409550812</v>
       </c>
     </row>
     <row r="5">
@@ -539,37 +539,37 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8925</v>
+        <v>0.913</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9255</v>
+        <v>0.944</v>
       </c>
       <c r="G5" t="n">
-        <v>4.54361023157187</v>
+        <v>4.29553758065298</v>
       </c>
       <c r="H5" t="n">
-        <v>3.41092252784712</v>
+        <v>3.15149593820307</v>
       </c>
       <c r="I5" t="n">
-        <v>58.1369225817017</v>
+        <v>49.8987029614257</v>
       </c>
       <c r="J5" t="n">
-        <v>41.2881751576832</v>
+        <v>30.9603336777908</v>
       </c>
       <c r="K5" t="n">
-        <v>27.3295360153539</v>
+        <v>26.8292229592848</v>
       </c>
       <c r="L5" t="n">
-        <v>27.0405387112227</v>
+        <v>25.9495926398396</v>
       </c>
     </row>
     <row r="6">
@@ -577,37 +577,37 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.895</v>
+        <v>0.9035</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9235</v>
+        <v>0.932</v>
       </c>
       <c r="G6" t="n">
-        <v>4.54212701110648</v>
+        <v>4.30050955144907</v>
       </c>
       <c r="H6" t="n">
-        <v>3.40411206678676</v>
+        <v>3.24909538796587</v>
       </c>
       <c r="I6" t="n">
-        <v>63.074968149898</v>
+        <v>54.1634662367562</v>
       </c>
       <c r="J6" t="n">
-        <v>43.8810890004287</v>
+        <v>34.005652437963</v>
       </c>
       <c r="K6" t="n">
-        <v>27.307380066508</v>
+        <v>27.0874142958893</v>
       </c>
       <c r="L6" t="n">
-        <v>27.0070237153875</v>
+        <v>26.0558138539428</v>
       </c>
     </row>
     <row r="7">
@@ -615,37 +615,37 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>0.894</v>
+        <v>0.914</v>
       </c>
       <c r="F7" t="n">
-        <v>0.918</v>
+        <v>0.9385</v>
       </c>
       <c r="G7" t="n">
-        <v>4.58316917957522</v>
+        <v>4.36077260667662</v>
       </c>
       <c r="H7" t="n">
-        <v>3.46473032074425</v>
+        <v>3.10565983959416</v>
       </c>
       <c r="I7" t="n">
-        <v>64.1857220341012</v>
+        <v>52.2066927932275</v>
       </c>
       <c r="J7" t="n">
-        <v>44.7758503974991</v>
+        <v>32.6254543837414</v>
       </c>
       <c r="K7" t="n">
-        <v>27.1808230672551</v>
+        <v>27.2196820584013</v>
       </c>
       <c r="L7" t="n">
-        <v>27.0403790744726</v>
+        <v>26.1387190910234</v>
       </c>
     </row>
     <row r="8">
@@ -653,37 +653,37 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8955</v>
+        <v>0.9045</v>
       </c>
       <c r="F8" t="n">
-        <v>0.917</v>
+        <v>0.932</v>
       </c>
       <c r="G8" t="n">
-        <v>4.785072419594</v>
+        <v>4.47378944154012</v>
       </c>
       <c r="H8" t="n">
-        <v>3.53223765069957</v>
+        <v>3.16652128565977</v>
       </c>
       <c r="I8" t="n">
-        <v>67.6310688818376</v>
+        <v>55.5300138770688</v>
       </c>
       <c r="J8" t="n">
-        <v>48.3194892681868</v>
+        <v>33.9068053350605</v>
       </c>
       <c r="K8" t="n">
-        <v>27.5370344496458</v>
+        <v>27.1720154865148</v>
       </c>
       <c r="L8" t="n">
-        <v>26.9755331037809</v>
+        <v>25.9746365824672</v>
       </c>
     </row>
     <row r="9">
@@ -691,37 +691,37 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8935</v>
+        <v>0.906</v>
       </c>
       <c r="F9" t="n">
-        <v>0.918</v>
+        <v>0.934</v>
       </c>
       <c r="G9" t="n">
-        <v>4.64364023799313</v>
+        <v>4.30832241645295</v>
       </c>
       <c r="H9" t="n">
-        <v>3.42765742935832</v>
+        <v>3.03193915988605</v>
       </c>
       <c r="I9" t="n">
-        <v>67.3420597083802</v>
+        <v>54.2138412216862</v>
       </c>
       <c r="J9" t="n">
-        <v>46.8679768545625</v>
+        <v>32.7587668868878</v>
       </c>
       <c r="K9" t="n">
-        <v>27.7344116145732</v>
+        <v>26.9949494146178</v>
       </c>
       <c r="L9" t="n">
-        <v>27.426032424097</v>
+        <v>26.0586756541619</v>
       </c>
     </row>
     <row r="10">
@@ -729,37 +729,37 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>0.894</v>
+        <v>0.908</v>
       </c>
       <c r="F10" t="n">
-        <v>0.912</v>
+        <v>0.936</v>
       </c>
       <c r="G10" t="n">
-        <v>4.57704180556645</v>
+        <v>4.52416323103599</v>
       </c>
       <c r="H10" t="n">
-        <v>3.39627626450925</v>
+        <v>3.16296590186766</v>
       </c>
       <c r="I10" t="n">
-        <v>64.7888621773835</v>
+        <v>56.2590076149058</v>
       </c>
       <c r="J10" t="n">
-        <v>46.4235475415528</v>
+        <v>34.2405161625148</v>
       </c>
       <c r="K10" t="n">
-        <v>27.1760754859167</v>
+        <v>26.9470362490342</v>
       </c>
       <c r="L10" t="n">
-        <v>27.0310694599212</v>
+        <v>26.2983113319255</v>
       </c>
     </row>
     <row r="11">
@@ -767,37 +767,37 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8855</v>
+        <v>0.9045</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9175</v>
+        <v>0.9355</v>
       </c>
       <c r="G11" t="n">
-        <v>4.57080503494929</v>
+        <v>4.50184805169848</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5320974041048</v>
+        <v>3.22448762132649</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5211629129843</v>
+        <v>53.1812374091161</v>
       </c>
       <c r="J11" t="n">
-        <v>47.2925673997698</v>
+        <v>32.4518451677996</v>
       </c>
       <c r="K11" t="n">
-        <v>27.6222218906449</v>
+        <v>27.2485493632101</v>
       </c>
       <c r="L11" t="n">
-        <v>27.4326038112742</v>
+        <v>26.1903543356602</v>
       </c>
     </row>
     <row r="12">
@@ -805,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
         <v>70</v>
@@ -814,28 +814,28 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.936</v>
+        <v>0.9355</v>
       </c>
       <c r="F12" t="n">
-        <v>0.966</v>
+        <v>0.961</v>
       </c>
       <c r="G12" t="n">
-        <v>4.1945365815947</v>
+        <v>4.18739330134529</v>
       </c>
       <c r="H12" t="n">
-        <v>2.80994762290145</v>
+        <v>2.69892162150086</v>
       </c>
       <c r="I12" t="n">
-        <v>42.2421245415497</v>
+        <v>41.1041406750426</v>
       </c>
       <c r="J12" t="n">
-        <v>22.196891086215</v>
+        <v>20.861161068133</v>
       </c>
       <c r="K12" t="n">
-        <v>26.3576650036124</v>
+        <v>26.037310644954</v>
       </c>
       <c r="L12" t="n">
-        <v>24.8953300662101</v>
+        <v>24.3041359590048</v>
       </c>
     </row>
     <row r="13">
@@ -843,7 +843,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
         <v>70</v>
@@ -852,28 +852,28 @@
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9325</v>
+        <v>0.925</v>
       </c>
       <c r="F13" t="n">
-        <v>0.965</v>
+        <v>0.957</v>
       </c>
       <c r="G13" t="n">
-        <v>4.22768948950294</v>
+        <v>4.32620042545954</v>
       </c>
       <c r="H13" t="n">
-        <v>2.87857417689452</v>
+        <v>2.7348135301679</v>
       </c>
       <c r="I13" t="n">
-        <v>44.9263418615841</v>
+        <v>45.6512402364248</v>
       </c>
       <c r="J13" t="n">
-        <v>24.0056216799236</v>
+        <v>24.2867565919013</v>
       </c>
       <c r="K13" t="n">
-        <v>26.6078763649001</v>
+        <v>26.4485743770781</v>
       </c>
       <c r="L13" t="n">
-        <v>25.2247161168541</v>
+        <v>24.7411060528457</v>
       </c>
     </row>
     <row r="14">
@@ -881,7 +881,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
         <v>70</v>
@@ -890,28 +890,28 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0.926</v>
+        <v>0.922</v>
       </c>
       <c r="F14" t="n">
-        <v>0.956</v>
+        <v>0.951</v>
       </c>
       <c r="G14" t="n">
-        <v>4.43513569078136</v>
+        <v>4.42721173017698</v>
       </c>
       <c r="H14" t="n">
-        <v>2.90884087780605</v>
+        <v>2.93071555478595</v>
       </c>
       <c r="I14" t="n">
-        <v>50.8359018909907</v>
+        <v>48.4730227473428</v>
       </c>
       <c r="J14" t="n">
-        <v>26.9346461985113</v>
+        <v>25.8963889576926</v>
       </c>
       <c r="K14" t="n">
-        <v>26.9072016701481</v>
+        <v>26.5212606174195</v>
       </c>
       <c r="L14" t="n">
-        <v>25.2931381063498</v>
+        <v>24.7134937337623</v>
       </c>
     </row>
     <row r="15">
@@ -919,7 +919,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
         <v>70</v>
@@ -928,28 +928,28 @@
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9185</v>
+        <v>0.926</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9505</v>
+        <v>0.958</v>
       </c>
       <c r="G15" t="n">
-        <v>4.31223151094798</v>
+        <v>4.32316278202012</v>
       </c>
       <c r="H15" t="n">
-        <v>2.889688138508</v>
+        <v>2.81002277215216</v>
       </c>
       <c r="I15" t="n">
-        <v>50.6420577430001</v>
+        <v>49.0068843868304</v>
       </c>
       <c r="J15" t="n">
-        <v>27.7864039892904</v>
+        <v>26.3188668540653</v>
       </c>
       <c r="K15" t="n">
-        <v>26.8778233820931</v>
+        <v>26.585922508874</v>
       </c>
       <c r="L15" t="n">
-        <v>25.3991280205814</v>
+        <v>24.8160780741513</v>
       </c>
     </row>
     <row r="16">
@@ -957,7 +957,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
         <v>70</v>
@@ -966,28 +966,28 @@
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.924</v>
+        <v>0.9225</v>
       </c>
       <c r="F16" t="n">
-        <v>0.951</v>
+        <v>0.955</v>
       </c>
       <c r="G16" t="n">
-        <v>4.40481776568814</v>
+        <v>4.39481333173866</v>
       </c>
       <c r="H16" t="n">
-        <v>2.96063067651358</v>
+        <v>2.8474172368561</v>
       </c>
       <c r="I16" t="n">
-        <v>50.7852121056668</v>
+        <v>50.3770580259499</v>
       </c>
       <c r="J16" t="n">
-        <v>28.204188817369</v>
+        <v>27.6730294945646</v>
       </c>
       <c r="K16" t="n">
-        <v>26.7941957510559</v>
+        <v>26.5963499412197</v>
       </c>
       <c r="L16" t="n">
-        <v>25.2403574624153</v>
+        <v>24.8787820693898</v>
       </c>
     </row>
     <row r="17">
@@ -995,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
         <v>70</v>
@@ -1004,28 +1004,28 @@
         <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9265</v>
+        <v>0.9275</v>
       </c>
       <c r="F17" t="n">
-        <v>0.961</v>
+        <v>0.957</v>
       </c>
       <c r="G17" t="n">
-        <v>4.4572365499384</v>
+        <v>4.29377957332186</v>
       </c>
       <c r="H17" t="n">
-        <v>2.96154473261323</v>
+        <v>2.86803757963383</v>
       </c>
       <c r="I17" t="n">
-        <v>50.3950717450474</v>
+        <v>48.0077568786797</v>
       </c>
       <c r="J17" t="n">
-        <v>28.6817373078701</v>
+        <v>25.9441293921017</v>
       </c>
       <c r="K17" t="n">
-        <v>26.8309802556823</v>
+        <v>26.6723360900852</v>
       </c>
       <c r="L17" t="n">
-        <v>25.3351963496706</v>
+        <v>24.935726488436</v>
       </c>
     </row>
     <row r="18">
@@ -1033,7 +1033,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
         <v>70</v>
@@ -1042,28 +1042,28 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>0.928</v>
+        <v>0.923</v>
       </c>
       <c r="F18" t="n">
-        <v>0.958</v>
+        <v>0.9545</v>
       </c>
       <c r="G18" t="n">
-        <v>4.28986061508433</v>
+        <v>4.51439415836418</v>
       </c>
       <c r="H18" t="n">
-        <v>3.03370140326161</v>
+        <v>2.903561243945</v>
       </c>
       <c r="I18" t="n">
-        <v>49.5928697454675</v>
+        <v>47.788598349306</v>
       </c>
       <c r="J18" t="n">
-        <v>29.5905136691045</v>
+        <v>25.0161022585593</v>
       </c>
       <c r="K18" t="n">
-        <v>26.7328950865301</v>
+        <v>26.5372426046786</v>
       </c>
       <c r="L18" t="n">
-        <v>25.2996848225713</v>
+        <v>24.8223479230458</v>
       </c>
     </row>
     <row r="19">
@@ -1071,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
         <v>70</v>
@@ -1080,28 +1080,28 @@
         <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>0.929</v>
+        <v>0.921</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9615</v>
+        <v>0.9545</v>
       </c>
       <c r="G19" t="n">
-        <v>4.61599387881153</v>
+        <v>4.51666901262863</v>
       </c>
       <c r="H19" t="n">
-        <v>3.12724094664756</v>
+        <v>2.84087062035492</v>
       </c>
       <c r="I19" t="n">
-        <v>50.9014334433344</v>
+        <v>49.4842921179112</v>
       </c>
       <c r="J19" t="n">
-        <v>28.887414361834</v>
+        <v>26.8009491197772</v>
       </c>
       <c r="K19" t="n">
-        <v>26.8145840201258</v>
+        <v>26.4710385295796</v>
       </c>
       <c r="L19" t="n">
-        <v>25.47184304822</v>
+        <v>24.9373296402363</v>
       </c>
     </row>
     <row r="20">
@@ -1109,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
         <v>70</v>
@@ -1118,28 +1118,28 @@
         <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9245</v>
+        <v>0.93</v>
       </c>
       <c r="F20" t="n">
-        <v>0.959</v>
+        <v>0.958</v>
       </c>
       <c r="G20" t="n">
-        <v>4.43576145038117</v>
+        <v>4.43801411041697</v>
       </c>
       <c r="H20" t="n">
-        <v>3.07441844919693</v>
+        <v>2.92108357153712</v>
       </c>
       <c r="I20" t="n">
-        <v>50.4127917819824</v>
+        <v>49.8982614853087</v>
       </c>
       <c r="J20" t="n">
-        <v>29.0900198771038</v>
+        <v>27.7298798294532</v>
       </c>
       <c r="K20" t="n">
-        <v>26.9261776715505</v>
+        <v>26.7279629872244</v>
       </c>
       <c r="L20" t="n">
-        <v>25.6820889275</v>
+        <v>24.9426738450407</v>
       </c>
     </row>
     <row r="21">
@@ -1147,7 +1147,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
         <v>70</v>
@@ -1156,28 +1156,28 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>0.919</v>
+        <v>0.9215</v>
       </c>
       <c r="F21" t="n">
         <v>0.954</v>
       </c>
       <c r="G21" t="n">
-        <v>4.30974701531621</v>
+        <v>4.11258587230376</v>
       </c>
       <c r="H21" t="n">
-        <v>2.90765440226296</v>
+        <v>2.83212542005696</v>
       </c>
       <c r="I21" t="n">
-        <v>50.4925428675493</v>
+        <v>47.6278098367713</v>
       </c>
       <c r="J21" t="n">
-        <v>29.0463419948035</v>
+        <v>25.5705627148747</v>
       </c>
       <c r="K21" t="n">
-        <v>26.8202405836441</v>
+        <v>26.4774409245063</v>
       </c>
       <c r="L21" t="n">
-        <v>25.6377008918459</v>
+        <v>24.8634353435059</v>
       </c>
     </row>
     <row r="22">
@@ -1185,37 +1185,37 @@
         <v>12</v>
       </c>
       <c r="B22" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.926</v>
+        <v>0.934</v>
       </c>
       <c r="F22" t="n">
-        <v>0.943</v>
+        <v>0.9515</v>
       </c>
       <c r="G22" t="n">
-        <v>4.01399463791758</v>
+        <v>4.21445124919321</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2107615531661</v>
+        <v>2.97993876243322</v>
       </c>
       <c r="I22" t="n">
-        <v>41.7255457618463</v>
+        <v>44.0749509422011</v>
       </c>
       <c r="J22" t="n">
-        <v>29.7446099965572</v>
+        <v>28.025293515561</v>
       </c>
       <c r="K22" t="n">
-        <v>26.540793987041</v>
+        <v>26.4965292469613</v>
       </c>
       <c r="L22" t="n">
-        <v>26.4729206178247</v>
+        <v>25.6270382684</v>
       </c>
     </row>
     <row r="23">
@@ -1223,37 +1223,37 @@
         <v>12</v>
       </c>
       <c r="B23" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>0.917</v>
+        <v>0.921</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9325</v>
+        <v>0.943</v>
       </c>
       <c r="G23" t="n">
-        <v>4.29375316691924</v>
+        <v>4.39405270048931</v>
       </c>
       <c r="H23" t="n">
-        <v>3.34918760882637</v>
+        <v>3.17532959978565</v>
       </c>
       <c r="I23" t="n">
-        <v>45.6945816736133</v>
+        <v>48.8827551806123</v>
       </c>
       <c r="J23" t="n">
-        <v>33.4153736147515</v>
+        <v>29.9088414493879</v>
       </c>
       <c r="K23" t="n">
-        <v>26.8320572583618</v>
+        <v>26.9673034879472</v>
       </c>
       <c r="L23" t="n">
-        <v>26.8343418819628</v>
+        <v>26.1287030515572</v>
       </c>
     </row>
     <row r="24">
@@ -1261,37 +1261,37 @@
         <v>12</v>
       </c>
       <c r="B24" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0.909</v>
+        <v>0.9275</v>
       </c>
       <c r="F24" t="n">
-        <v>0.928</v>
+        <v>0.945</v>
       </c>
       <c r="G24" t="n">
-        <v>4.39730832764375</v>
+        <v>4.48836498260424</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5362977560769</v>
+        <v>3.30121288964622</v>
       </c>
       <c r="I24" t="n">
-        <v>49.2751124640068</v>
+        <v>47.5445890078348</v>
       </c>
       <c r="J24" t="n">
-        <v>36.1809418875943</v>
+        <v>30.4935044141266</v>
       </c>
       <c r="K24" t="n">
-        <v>26.97927536559</v>
+        <v>27.1736737399423</v>
       </c>
       <c r="L24" t="n">
-        <v>27.0911020151194</v>
+        <v>26.3390330290493</v>
       </c>
     </row>
     <row r="25">
@@ -1299,37 +1299,37 @@
         <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
         <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9075</v>
+        <v>0.919</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9305</v>
+        <v>0.9465</v>
       </c>
       <c r="G25" t="n">
-        <v>4.38498883297199</v>
+        <v>4.1791040053927</v>
       </c>
       <c r="H25" t="n">
-        <v>3.44176652146308</v>
+        <v>3.09519973553133</v>
       </c>
       <c r="I25" t="n">
-        <v>51.485302556561</v>
+        <v>48.3899833008631</v>
       </c>
       <c r="J25" t="n">
-        <v>37.2846907462826</v>
+        <v>30.3793614090297</v>
       </c>
       <c r="K25" t="n">
-        <v>26.8201694190494</v>
+        <v>27.0472086499966</v>
       </c>
       <c r="L25" t="n">
-        <v>27.097299882687</v>
+        <v>26.3323895573127</v>
       </c>
     </row>
     <row r="26">
@@ -1337,37 +1337,37 @@
         <v>12</v>
       </c>
       <c r="B26" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8985</v>
+        <v>0.9185</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9225</v>
+        <v>0.9425</v>
       </c>
       <c r="G26" t="n">
-        <v>4.69088923426977</v>
+        <v>4.34085083794251</v>
       </c>
       <c r="H26" t="n">
-        <v>3.64954901582417</v>
+        <v>3.14707365178762</v>
       </c>
       <c r="I26" t="n">
-        <v>53.8832677307579</v>
+        <v>47.9863551130379</v>
       </c>
       <c r="J26" t="n">
-        <v>39.8563961493317</v>
+        <v>31.2802514325221</v>
       </c>
       <c r="K26" t="n">
-        <v>27.0535826532787</v>
+        <v>27.0484062716141</v>
       </c>
       <c r="L26" t="n">
-        <v>27.3108374084964</v>
+        <v>26.2201828227646</v>
       </c>
     </row>
     <row r="27">
@@ -1375,37 +1375,37 @@
         <v>12</v>
       </c>
       <c r="B27" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9015</v>
+        <v>0.918</v>
       </c>
       <c r="F27" t="n">
-        <v>0.926</v>
+        <v>0.936</v>
       </c>
       <c r="G27" t="n">
-        <v>4.31551617524392</v>
+        <v>4.36695608578091</v>
       </c>
       <c r="H27" t="n">
-        <v>3.48526225478462</v>
+        <v>3.2556876553403</v>
       </c>
       <c r="I27" t="n">
-        <v>53.3975353486759</v>
+        <v>53.1786742443847</v>
       </c>
       <c r="J27" t="n">
-        <v>39.3918466050791</v>
+        <v>33.1728989818072</v>
       </c>
       <c r="K27" t="n">
-        <v>27.173964234395</v>
+        <v>27.3914563215116</v>
       </c>
       <c r="L27" t="n">
-        <v>27.2794619541895</v>
+        <v>26.6839172913674</v>
       </c>
     </row>
     <row r="28">
@@ -1413,37 +1413,37 @@
         <v>12</v>
       </c>
       <c r="B28" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9125</v>
+        <v>0.9145</v>
       </c>
       <c r="F28" t="n">
-        <v>0.934</v>
+        <v>0.9365</v>
       </c>
       <c r="G28" t="n">
-        <v>4.56950345837431</v>
+        <v>4.39550683360797</v>
       </c>
       <c r="H28" t="n">
-        <v>3.62789345751001</v>
+        <v>3.24149485715369</v>
       </c>
       <c r="I28" t="n">
-        <v>51.0846530780398</v>
+        <v>52.2900463841062</v>
       </c>
       <c r="J28" t="n">
-        <v>37.3088912873044</v>
+        <v>32.8913451700089</v>
       </c>
       <c r="K28" t="n">
-        <v>27.1716202435844</v>
+        <v>27.4448825429618</v>
       </c>
       <c r="L28" t="n">
-        <v>27.388889742542</v>
+        <v>26.7835994136914</v>
       </c>
     </row>
     <row r="29">
@@ -1451,37 +1451,37 @@
         <v>12</v>
       </c>
       <c r="B29" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
         <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>0.909</v>
+        <v>0.913</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9305</v>
+        <v>0.939</v>
       </c>
       <c r="G29" t="n">
-        <v>4.57779848399297</v>
+        <v>4.39081447066796</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6452209713939</v>
+        <v>3.23731569390448</v>
       </c>
       <c r="I29" t="n">
-        <v>53.4203551854061</v>
+        <v>55.0976265853216</v>
       </c>
       <c r="J29" t="n">
-        <v>39.4341809956252</v>
+        <v>35.13340305031</v>
       </c>
       <c r="K29" t="n">
-        <v>27.2094468663257</v>
+        <v>27.4315592195557</v>
       </c>
       <c r="L29" t="n">
-        <v>27.4309163604294</v>
+        <v>26.7911139098354</v>
       </c>
     </row>
     <row r="30">
@@ -1489,37 +1489,37 @@
         <v>12</v>
       </c>
       <c r="B30" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D30" t="n">
         <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>0.908</v>
+        <v>0.911</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9315</v>
+        <v>0.938</v>
       </c>
       <c r="G30" t="n">
-        <v>4.28884710117649</v>
+        <v>4.59306131238222</v>
       </c>
       <c r="H30" t="n">
-        <v>3.50208291987467</v>
+        <v>3.38371407888272</v>
       </c>
       <c r="I30" t="n">
-        <v>52.3064755553574</v>
+        <v>55.4768075973453</v>
       </c>
       <c r="J30" t="n">
-        <v>38.2460445582945</v>
+        <v>36.3018669866221</v>
       </c>
       <c r="K30" t="n">
-        <v>27.2303512576396</v>
+        <v>27.2829809160448</v>
       </c>
       <c r="L30" t="n">
-        <v>27.5110903789814</v>
+        <v>26.8872465927231</v>
       </c>
     </row>
     <row r="31">
@@ -1527,37 +1527,37 @@
         <v>12</v>
       </c>
       <c r="B31" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9165</v>
+        <v>0.9075</v>
       </c>
       <c r="F31" t="n">
-        <v>0.929</v>
+        <v>0.9375</v>
       </c>
       <c r="G31" t="n">
-        <v>4.38166770360034</v>
+        <v>4.52837531416156</v>
       </c>
       <c r="H31" t="n">
-        <v>3.41945132200992</v>
+        <v>3.25295759943468</v>
       </c>
       <c r="I31" t="n">
-        <v>54.872103679674</v>
+        <v>55.1132469385894</v>
       </c>
       <c r="J31" t="n">
-        <v>41.0939571491017</v>
+        <v>34.8447747549186</v>
       </c>
       <c r="K31" t="n">
-        <v>27.2864487605812</v>
+        <v>27.4398733199418</v>
       </c>
       <c r="L31" t="n">
-        <v>27.5007046743326</v>
+        <v>26.8605068811987</v>
       </c>
     </row>
     <row r="32">
@@ -1565,7 +1565,7 @@
         <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C32" t="n">
         <v>70</v>
@@ -1574,28 +1574,28 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9395</v>
+        <v>0.9365</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9645</v>
+        <v>0.9605</v>
       </c>
       <c r="G32" t="n">
-        <v>3.87477382474284</v>
+        <v>4.07022302593993</v>
       </c>
       <c r="H32" t="n">
-        <v>2.69416104735777</v>
+        <v>2.80158623678891</v>
       </c>
       <c r="I32" t="n">
-        <v>36.6394508639267</v>
+        <v>41.0844678613085</v>
       </c>
       <c r="J32" t="n">
-        <v>21.1409952241153</v>
+        <v>22.9056886985919</v>
       </c>
       <c r="K32" t="n">
-        <v>25.9164107735204</v>
+        <v>26.3589099255229</v>
       </c>
       <c r="L32" t="n">
-        <v>24.564321044327</v>
+        <v>24.5260639458698</v>
       </c>
     </row>
     <row r="33">
@@ -1603,7 +1603,7 @@
         <v>12</v>
       </c>
       <c r="B33" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C33" t="n">
         <v>70</v>
@@ -1612,28 +1612,28 @@
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9425</v>
+        <v>0.9335</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9625</v>
+        <v>0.954</v>
       </c>
       <c r="G33" t="n">
-        <v>4.22821682157893</v>
+        <v>4.16149842979268</v>
       </c>
       <c r="H33" t="n">
-        <v>3.00896828620631</v>
+        <v>2.73306772134482</v>
       </c>
       <c r="I33" t="n">
-        <v>43.2982395713182</v>
+        <v>42.1323765965737</v>
       </c>
       <c r="J33" t="n">
-        <v>25.3908180059578</v>
+        <v>23.5454943430097</v>
       </c>
       <c r="K33" t="n">
-        <v>26.2338728641946</v>
+        <v>26.4154540089293</v>
       </c>
       <c r="L33" t="n">
-        <v>24.8190562208795</v>
+        <v>24.9214162541388</v>
       </c>
     </row>
     <row r="34">
@@ -1641,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C34" t="n">
         <v>70</v>
@@ -1650,28 +1650,28 @@
         <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>0.931</v>
+        <v>0.924</v>
       </c>
       <c r="F34" t="n">
-        <v>0.953</v>
+        <v>0.9545</v>
       </c>
       <c r="G34" t="n">
-        <v>4.08257469546112</v>
+        <v>4.33049482824006</v>
       </c>
       <c r="H34" t="n">
-        <v>2.90070383019124</v>
+        <v>2.75156754592373</v>
       </c>
       <c r="I34" t="n">
-        <v>44.2104953876571</v>
+        <v>45.7845607186177</v>
       </c>
       <c r="J34" t="n">
-        <v>26.3387971908615</v>
+        <v>26.3909707087202</v>
       </c>
       <c r="K34" t="n">
-        <v>26.1905857578149</v>
+        <v>26.5058385506486</v>
       </c>
       <c r="L34" t="n">
-        <v>25.0715203229544</v>
+        <v>24.9794769181305</v>
       </c>
     </row>
     <row r="35">
@@ -1679,7 +1679,7 @@
         <v>12</v>
       </c>
       <c r="B35" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C35" t="n">
         <v>70</v>
@@ -1688,28 +1688,28 @@
         <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9225</v>
+        <v>0.931</v>
       </c>
       <c r="F35" t="n">
-        <v>0.954</v>
+        <v>0.9585</v>
       </c>
       <c r="G35" t="n">
-        <v>4.27983596388527</v>
+        <v>4.27061413659661</v>
       </c>
       <c r="H35" t="n">
-        <v>3.0275932240956</v>
+        <v>2.89326084051452</v>
       </c>
       <c r="I35" t="n">
-        <v>48.2344673258698</v>
+        <v>47.0686922131378</v>
       </c>
       <c r="J35" t="n">
-        <v>28.8197238475952</v>
+        <v>26.3374041229438</v>
       </c>
       <c r="K35" t="n">
-        <v>26.284376109387</v>
+        <v>26.6596733171239</v>
       </c>
       <c r="L35" t="n">
-        <v>25.1098761682144</v>
+        <v>25.0214574848867</v>
       </c>
     </row>
     <row r="36">
@@ -1717,7 +1717,7 @@
         <v>12</v>
       </c>
       <c r="B36" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C36" t="n">
         <v>70</v>
@@ -1726,28 +1726,28 @@
         <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>0.926</v>
+        <v>0.918</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9515</v>
+        <v>0.945</v>
       </c>
       <c r="G36" t="n">
-        <v>4.29452203544598</v>
+        <v>4.43474247723171</v>
       </c>
       <c r="H36" t="n">
-        <v>2.94150838957803</v>
+        <v>2.93530331480839</v>
       </c>
       <c r="I36" t="n">
-        <v>47.8379708521132</v>
+        <v>49.57362553703</v>
       </c>
       <c r="J36" t="n">
-        <v>29.1658222905517</v>
+        <v>28.5090017951634</v>
       </c>
       <c r="K36" t="n">
-        <v>26.4577703764832</v>
+        <v>26.8256479609024</v>
       </c>
       <c r="L36" t="n">
-        <v>25.1100579904117</v>
+        <v>25.2869669152265</v>
       </c>
     </row>
     <row r="37">
@@ -1755,7 +1755,7 @@
         <v>12</v>
       </c>
       <c r="B37" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C37" t="n">
         <v>70</v>
@@ -1764,28 +1764,28 @@
         <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9245</v>
+        <v>0.926</v>
       </c>
       <c r="F37" t="n">
-        <v>0.952</v>
+        <v>0.9575</v>
       </c>
       <c r="G37" t="n">
-        <v>4.6028509793493</v>
+        <v>4.37102921051114</v>
       </c>
       <c r="H37" t="n">
-        <v>3.03159627720828</v>
+        <v>3.0093617957061</v>
       </c>
       <c r="I37" t="n">
-        <v>49.7322864650666</v>
+        <v>49.1641704283752</v>
       </c>
       <c r="J37" t="n">
-        <v>30.5942155393687</v>
+        <v>27.8008743368866</v>
       </c>
       <c r="K37" t="n">
-        <v>26.225777380962</v>
+        <v>26.8806741060981</v>
       </c>
       <c r="L37" t="n">
-        <v>25.1015912212045</v>
+        <v>25.4581531132562</v>
       </c>
     </row>
     <row r="38">
@@ -1793,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C38" t="n">
         <v>70</v>
@@ -1802,28 +1802,28 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9265</v>
+        <v>0.9235</v>
       </c>
       <c r="F38" t="n">
         <v>0.9485</v>
       </c>
       <c r="G38" t="n">
-        <v>4.26901464601144</v>
+        <v>4.24069760320013</v>
       </c>
       <c r="H38" t="n">
-        <v>2.93684249900284</v>
+        <v>2.87151183698333</v>
       </c>
       <c r="I38" t="n">
-        <v>49.9136628847138</v>
+        <v>51.9491303793769</v>
       </c>
       <c r="J38" t="n">
-        <v>30.9609572186747</v>
+        <v>29.7651026325915</v>
       </c>
       <c r="K38" t="n">
-        <v>26.2950239284017</v>
+        <v>27.0213494125102</v>
       </c>
       <c r="L38" t="n">
-        <v>25.3162080185583</v>
+        <v>25.2373509360054</v>
       </c>
     </row>
     <row r="39">
@@ -1831,7 +1831,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C39" t="n">
         <v>70</v>
@@ -1840,28 +1840,28 @@
         <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9275</v>
+        <v>0.9195</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9535</v>
+        <v>0.9525</v>
       </c>
       <c r="G39" t="n">
-        <v>4.22802081083271</v>
+        <v>4.37708505717298</v>
       </c>
       <c r="H39" t="n">
-        <v>2.94792768073411</v>
+        <v>2.95588113962027</v>
       </c>
       <c r="I39" t="n">
-        <v>48.7922992959582</v>
+        <v>53.7210102917303</v>
       </c>
       <c r="J39" t="n">
-        <v>29.1007059767292</v>
+        <v>30.3994760777219</v>
       </c>
       <c r="K39" t="n">
-        <v>26.3914519272417</v>
+        <v>27.0315593278924</v>
       </c>
       <c r="L39" t="n">
-        <v>25.2727157188299</v>
+        <v>25.3549106242938</v>
       </c>
     </row>
     <row r="40">
@@ -1869,7 +1869,7 @@
         <v>12</v>
       </c>
       <c r="B40" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C40" t="n">
         <v>70</v>
@@ -1878,28 +1878,28 @@
         <v>9</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9255</v>
+        <v>0.9205</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9535</v>
+        <v>0.951</v>
       </c>
       <c r="G40" t="n">
-        <v>4.34307359953741</v>
+        <v>4.43360225710909</v>
       </c>
       <c r="H40" t="n">
-        <v>3.04251002508039</v>
+        <v>2.95013597764488</v>
       </c>
       <c r="I40" t="n">
-        <v>46.869216198862</v>
+        <v>53.1561853697394</v>
       </c>
       <c r="J40" t="n">
-        <v>28.3634316647001</v>
+        <v>31.0430253518246</v>
       </c>
       <c r="K40" t="n">
-        <v>26.4698610144003</v>
+        <v>26.892026481965</v>
       </c>
       <c r="L40" t="n">
-        <v>25.3845778312032</v>
+        <v>25.5548971215053</v>
       </c>
     </row>
     <row r="41">
@@ -1907,7 +1907,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C41" t="n">
         <v>70</v>
@@ -1916,28 +1916,28 @@
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9165</v>
+        <v>0.923</v>
       </c>
       <c r="F41" t="n">
-        <v>0.949</v>
+        <v>0.956</v>
       </c>
       <c r="G41" t="n">
-        <v>4.4952250844294</v>
+        <v>4.21437810474994</v>
       </c>
       <c r="H41" t="n">
-        <v>3.00551159962675</v>
+        <v>2.92525020293413</v>
       </c>
       <c r="I41" t="n">
-        <v>50.3863452407764</v>
+        <v>49.1102883622986</v>
       </c>
       <c r="J41" t="n">
-        <v>30.6073552293873</v>
+        <v>28.9351181310014</v>
       </c>
       <c r="K41" t="n">
-        <v>26.3250268841118</v>
+        <v>27.0086543940998</v>
       </c>
       <c r="L41" t="n">
-        <v>25.3496493836765</v>
+        <v>25.4076685162929</v>
       </c>
     </row>
   </sheetData>
